--- a/ITEAMS TO FINISH.xlsx
+++ b/ITEAMS TO FINISH.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4998FB-1211-4A28-BF0D-315AEEAEF447}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B8B6A7-7784-46F1-B6E6-6DE0E5BAA608}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Iteams</t>
   </si>
@@ -39,7 +39,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>youssef</t>
+    <t>Done</t>
   </si>
   <si>
     <t>Architecture design</t>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Stackholder</t>
+  </si>
+  <si>
+    <t>Youssef</t>
   </si>
   <si>
     <t>View &amp; viewpoint</t>
@@ -424,7 +427,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,13 +489,16 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -508,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -516,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -524,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -532,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -540,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ITEAMS TO FINISH.xlsx
+++ b/ITEAMS TO FINISH.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B8B6A7-7784-46F1-B6E6-6DE0E5BAA608}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moata\source\repos\SW2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD4B75-33B8-4457-9A61-1858EEDD3861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Iteams</t>
   </si>
@@ -31,9 +36,6 @@
   </si>
   <si>
     <t>Semantic</t>
-  </si>
-  <si>
-    <t>karim &amp; moataz</t>
   </si>
   <si>
     <t>process</t>
@@ -79,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -426,17 +428,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,101 +454,101 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
